--- a/a-place-for-salvador-allende/countries/Spain_5.xlsx
+++ b/a-place-for-salvador-allende/countries/Spain_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_2879A2E47183CF833592727939847C9C6AB80117" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C155CD-9C9B-401E-AE65-882E5FDB0227}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_2879A2E47183CF833592727939847C9C6AB80117" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE03988-A4AD-48CE-92D5-12DD9EFD1018}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>50015</t>
-  </si>
-  <si>
-    <t>google maps</t>
   </si>
   <si>
     <t>La ciudad de Zaragoza a la memoria de Salvador Allende presidente de Chile</t>
@@ -817,7 +814,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,7 +898,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -946,13 +943,13 @@
         <v>11</v>
       </c>
       <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
         <v>85</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>86</v>
-      </c>
-      <c r="S2" t="s">
-        <v>87</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -961,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>58</v>
@@ -969,7 +966,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -993,7 +990,7 @@
         <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>29190</v>
@@ -1020,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>59</v>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1111,10 +1108,10 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
         <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -1135,7 +1132,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
         <v>73</v>
@@ -1144,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>61</v>
@@ -1182,16 +1179,19 @@
         <v>-0.87633628792473095</v>
       </c>
       <c r="N6">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O6">
         <v>9</v>
       </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
       <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
         <v>81</v>
-      </c>
-      <c r="R6" t="s">
-        <v>82</v>
       </c>
       <c r="S6" t="s">
         <v>73</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>62</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1254,13 +1254,13 @@
         <v>11</v>
       </c>
       <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" t="s">
         <v>85</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>86</v>
-      </c>
-      <c r="S7" t="s">
-        <v>87</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>56</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>63</v>
@@ -1331,7 +1331,7 @@
         <v>57</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>64</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>67</v>
